--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCD/20/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCD/20/seed2/result_data_RandomForest.xlsx
@@ -468,7 +468,7 @@
         <v>3.8</v>
       </c>
       <c r="C2" t="n">
-        <v>-11.81639999999999</v>
+        <v>-11.5448</v>
       </c>
       <c r="D2" t="n">
         <v>-8.220000000000001</v>
@@ -482,7 +482,7 @@
         <v>-21.67</v>
       </c>
       <c r="B3" t="n">
-        <v>6.03969999999999</v>
+        <v>5.965699999999988</v>
       </c>
       <c r="C3" t="n">
         <v>-9.76</v>
@@ -519,10 +519,10 @@
         <v>4.35</v>
       </c>
       <c r="C5" t="n">
-        <v>-14.45820000000001</v>
+        <v>-14.32120000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.6434</v>
+        <v>-8.451999999999998</v>
       </c>
       <c r="E5" t="n">
         <v>9.970000000000001</v>
@@ -590,7 +590,7 @@
         <v>-13.02</v>
       </c>
       <c r="D9" t="n">
-        <v>-8.007500000000007</v>
+        <v>-7.2811</v>
       </c>
       <c r="E9" t="n">
         <v>12.31</v>
@@ -624,7 +624,7 @@
         <v>-13.87</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.324600000000004</v>
+        <v>-8.336500000000008</v>
       </c>
       <c r="E11" t="n">
         <v>13.91</v>
@@ -669,7 +669,7 @@
         <v>-20.07</v>
       </c>
       <c r="B14" t="n">
-        <v>9.5814</v>
+        <v>9.057399999999999</v>
       </c>
       <c r="C14" t="n">
         <v>-11.89</v>
@@ -703,10 +703,10 @@
         <v>-20.57</v>
       </c>
       <c r="B16" t="n">
-        <v>9.553300000000002</v>
+        <v>9.811499999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>-11.4622</v>
+        <v>-11.48329999999999</v>
       </c>
       <c r="D16" t="n">
         <v>-4.8</v>
@@ -726,7 +726,7 @@
         <v>-12.35</v>
       </c>
       <c r="D17" t="n">
-        <v>-7.867200000000006</v>
+        <v>-7.1882</v>
       </c>
       <c r="E17" t="n">
         <v>8.15</v>
@@ -788,13 +788,13 @@
         <v>-21.82</v>
       </c>
       <c r="B21" t="n">
-        <v>5.636399999999993</v>
+        <v>5.739699999999991</v>
       </c>
       <c r="C21" t="n">
         <v>-12.06</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.833700000000005</v>
+        <v>-7.862800000000002</v>
       </c>
       <c r="E21" t="n">
         <v>13.76</v>
@@ -822,7 +822,7 @@
         <v>-20.86</v>
       </c>
       <c r="B23" t="n">
-        <v>5.9424</v>
+        <v>5.492500000000001</v>
       </c>
       <c r="C23" t="n">
         <v>-10.59</v>
@@ -856,7 +856,7 @@
         <v>-21.66</v>
       </c>
       <c r="B25" t="n">
-        <v>5.798799999999993</v>
+        <v>5.693099999999994</v>
       </c>
       <c r="C25" t="n">
         <v>-14.32</v>
